--- a/Documentación/Psp's/Salma/Clase Usuario/Size Estimating Template.xlsx
+++ b/Documentación/Psp's/Salma/Clase Usuario/Size Estimating Template.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yosse\Documents\TSP\PSP\Clase Usuario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yosse\Downloads\Clase_Usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E272A48-8560-4004-BA3A-8F3BFF9C516C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96FF20E7-641F-4DC1-A140-33A4E2550DE0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
-    <sheet name="excel(1)" sheetId="1" r:id="rId1"/>
+    <sheet name="excel(6)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="excel_1" localSheetId="0">'excel(1)'!$A$1:$L$47</definedName>
+    <definedName name="excel_6" localSheetId="0">'excel(6)'!$A$1:$L$47</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,8 +24,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\Yosse\Downloads\excel(1).iqy" name="excel(1)" type="4" refreshedVersion="6" background="1" saveData="1">
-    <webPr consecutive="1" xl2000="1" url="http://localhost:2470/reports/form2html.class?uri=%2FProyectoConsultas%2BSIGERA%2FPSP2%2E1%2BClaseUsuario%2F%2Fpsp2%2E1%2Fsizeest%2Eclass&amp;EXPORT=excel" htmlFormat="all"/>
+  <connection id="1" odcFile="C:\Users\Yosse\Downloads\Clase_Usuario\excel(6).iqy" name="excel(6)" type="4" refreshedVersion="6" background="1" saveData="1">
+    <webPr consecutive="1" xl2000="1" url="http://localhost:2469/reports/form2html.class?uri=%2FProyectoConsultas%2BSIGERA%2FPSP2%2E1%2BClaseUsuario%2F%2Fpsp2%2E1%2Fsizeest%2Eclass&amp;EXPORT=excel" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
@@ -163,7 +163,7 @@
     <t>PROBE estimating basis used: (A, B, C, or D)</t>
   </si>
   <si>
-    <t>D</t>
+    <t>C</t>
   </si>
   <si>
     <r>
@@ -1231,7 +1231,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel(1)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel(6)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1533,7 +1533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="6">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K16" s="6">
         <v>7</v>
@@ -1819,7 +1819,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="8"/>
       <c r="J17" s="6">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K17" s="6"/>
     </row>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="6">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2192,13 +2192,13 @@
     <mergeCell ref="A12:B12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="http://localhost:2470/psp-lib/sizeinst.htm"/>
-    <hyperlink ref="A13" r:id="rId2" display="http://localhost:2470/reports/sizeest.class?moreBaseParts=1"/>
-    <hyperlink ref="D15" r:id="rId3" display="http://localhost:2470/dash/sizePerItemEdit"/>
-    <hyperlink ref="A17" r:id="rId4" display="http://localhost:2470/reports/sizeest.class?moreNew=1"/>
-    <hyperlink ref="A21" r:id="rId5" display="http://localhost:2470/reports/sizeest.class?moreReused=1"/>
-    <hyperlink ref="A25" r:id="rId6" display="http://localhost:2470/reports/probe/probe.class"/>
-    <hyperlink ref="A43" r:id="rId7" display="http://localhost:2470/reports/probe/probe.class?page=report"/>
+    <hyperlink ref="A3" r:id="rId1" display="http://localhost:2469/psp-lib/sizeinst.htm"/>
+    <hyperlink ref="A13" r:id="rId2" display="http://localhost:2469/reports/sizeest.class?moreBaseParts=1"/>
+    <hyperlink ref="D15" r:id="rId3" display="http://localhost:2469/dash/sizePerItemEdit"/>
+    <hyperlink ref="A17" r:id="rId4" display="http://localhost:2469/reports/sizeest.class?moreNew=1"/>
+    <hyperlink ref="A21" r:id="rId5" display="http://localhost:2469/reports/sizeest.class?moreReused=1"/>
+    <hyperlink ref="A25" r:id="rId6" display="http://localhost:2469/reports/probe/probe.class"/>
+    <hyperlink ref="A43" r:id="rId7" display="http://localhost:2469/reports/probe/probe.class?page=report"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
